--- a/residual plasmid/compiled primer runs 2 to 5.xlsx
+++ b/residual plasmid/compiled primer runs 2 to 5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lion\Documents\GitHub\python\residual plasmid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Z370XP SLI\github stuff\residual-plasmid-python\residual plasmid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8A0F5B-171F-4EAD-97B5-673DDCF7BE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7DE7A9-BDEE-4E36-98FC-4FE430CF63C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7485" yWindow="6525" windowWidth="15015" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2217,16 +2217,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>537210</xdr:colOff>
-      <xdr:row>241</xdr:row>
-      <xdr:rowOff>139290</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>41714</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>144650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>232410</xdr:colOff>
-      <xdr:row>257</xdr:row>
-      <xdr:rowOff>17594</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342031</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>22954</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2253,16 +2253,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>513522</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>573741</xdr:colOff>
-      <xdr:row>258</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>51937</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>45409</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2590,16 +2590,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y156" sqref="Y156"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H243" sqref="H243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.88671875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>3</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>4</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>3</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>3</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>4</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>3</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>3</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>4</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>3</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>4</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>4</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>4</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>4</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>4</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>3</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>3</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>4</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>4</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>3</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>3</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>4</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>3</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>3</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>4</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>4</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>3</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>3</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>4</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>4</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>3</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>3</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>4</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>3</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>12.096358047415595</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>15.242798519304547</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>18.628036517682755</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>0</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>21.960368843279159</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>-1</v>
       </c>
@@ -7841,12 +7841,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003BDE5101B76F0459633745991D08C0F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85a01d50b65df0c9eafc6857f0457a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90f47f61-9859-4113-b0e3-ea51975acb36" xmlns:ns3="cead0f27-4271-4fa7-b6c9-6a5beaabb1ce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23a401299654711033809a6f689d4246" ns2:_="" ns3:_="">
     <xsd:import namespace="90f47f61-9859-4113-b0e3-ea51975acb36"/>
@@ -8063,6 +8057,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42C6F24B-A1F8-4C98-ADFF-019D5BA23F0C}">
   <ds:schemaRefs>
@@ -8072,15 +8072,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B43B528-9716-43E7-A4B6-97F9FAC2D1F2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F35938CB-177B-4C44-A1D1-8EF3FFF0A598}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8097,4 +8088,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B43B528-9716-43E7-A4B6-97F9FAC2D1F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/residual plasmid/compiled primer runs 2 to 5.xlsx
+++ b/residual plasmid/compiled primer runs 2 to 5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Z370XP SLI\github stuff\residual-plasmid-python\residual plasmid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lion\Documents\GitHub\python\residual plasmid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7DE7A9-BDEE-4E36-98FC-4FE430CF63C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B031F5BB-C71F-4102-A267-139F8563D1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7485" yWindow="6525" windowWidth="15015" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2295,7 +2317,7 @@
   <autoFilter ref="A1:F241" xr:uid="{2BCDB5C1-AD2F-4BCB-84C2-19310B8B0EF7}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Amp5"/>
+        <filter val="Amp1"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -2305,6 +2327,11 @@
         <filter val="10pg/ul"/>
         <filter val="1ng/ul"/>
         <filter val="1pg/ul"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="10.00"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2590,16 +2617,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H243" sqref="H243"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C244" sqref="C244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2619,7 +2646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2639,8 +2666,16 @@
         <f>LOG10(Table1[[#This Row],[Quantity]])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>_xlfn.CONFIDENCE.T(0.95,_xlfn.STDEV.S(D2:D8),COUNT(D2:D8))</f>
+        <v>2.0800751339872842E-3</v>
+      </c>
+      <c r="I2" s="13">
+        <f>AVERAGE(D2:D8)</f>
+        <v>12.272861074558804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2661,7 +2696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2682,7 +2717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2703,7 +2738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2724,7 +2759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2745,7 +2780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2766,7 +2801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2787,7 +2822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2808,7 +2843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2829,7 +2864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2850,7 +2885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2871,7 +2906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2892,7 +2927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2913,7 +2948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2933,8 +2968,20 @@
         <f>LOG10(Table1[[#This Row],[Quantity]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f>_xlfn.CONFIDENCE.NORM(0.95,STDEVA(D16:D22),COUNT(D16:D22))</f>
+        <v>9.1336547350870673E-3</v>
+      </c>
+      <c r="I16" s="13">
+        <f>AVERAGE(D16:D22)</f>
+        <v>19.184975656651091</v>
+      </c>
+      <c r="J16" s="13">
+        <f>I16+H16</f>
+        <v>19.194109311386178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2954,8 +3001,12 @@
         <f>LOG10(Table1[[#This Row],[Quantity]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H17" t="e" cm="1">
+        <f t="array" ref="H17">_xlfn.CONFIDENCE.T(0.95,std,COUNT(D16:D22))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2976,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2996,8 +3047,20 @@
         <f>LOG10(Table1[[#This Row],[Quantity]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f>_xlfn.STDEV.S(D16:D22)</f>
+        <v>0.38537108400070658</v>
+      </c>
+      <c r="I19">
+        <f>_xlfn.STDEV.P(D16:D22)</f>
+        <v>0.35678429543899048</v>
+      </c>
+      <c r="K19" t="e" cm="1">
+        <f t="array" ref="K19">st</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3018,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3038,8 +3101,16 @@
         <f>LOG10(Table1[[#This Row],[Quantity]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f>H19/(SQRT(COUNT(D16:D22)))</f>
+        <v>0.14565657867732168</v>
+      </c>
+      <c r="J21" s="13">
+        <f>I16+H21</f>
+        <v>19.330632235328412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3060,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3081,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3102,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3123,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -3144,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3165,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3186,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3207,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3228,7 +3299,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3249,7 +3320,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3270,7 +3341,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3291,7 +3362,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3312,7 +3383,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3333,7 +3404,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3354,7 +3425,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3375,7 +3446,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -3396,7 +3467,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3417,7 +3488,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3438,7 +3509,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -3459,7 +3530,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -3480,7 +3551,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3501,7 +3572,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3522,7 +3593,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3543,7 +3614,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -3564,7 +3635,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3585,7 +3656,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3606,7 +3677,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -3627,7 +3698,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4</v>
       </c>
@@ -3648,7 +3719,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3669,7 +3740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
@@ -3690,7 +3761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
@@ -3711,7 +3782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3732,7 +3803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3753,7 +3824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
@@ -3774,7 +3845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -3795,7 +3866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3816,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3837,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3858,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -3879,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3900,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -3921,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4</v>
       </c>
@@ -3942,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3963,7 +4034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3984,7 +4055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
@@ -4005,7 +4076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -4026,7 +4097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
@@ -4047,7 +4118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4</v>
       </c>
@@ -4068,7 +4139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>4</v>
       </c>
@@ -4089,7 +4160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -4110,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
@@ -4131,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
@@ -4152,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
@@ -4173,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
@@ -4194,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>4</v>
       </c>
@@ -4215,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>4</v>
       </c>
@@ -4236,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
@@ -4257,7 +4328,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2</v>
       </c>
@@ -4278,7 +4349,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
@@ -4299,7 +4370,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
@@ -4320,7 +4391,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>3</v>
       </c>
@@ -4341,7 +4412,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
@@ -4362,7 +4433,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -4383,7 +4454,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -4404,7 +4475,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1</v>
       </c>
@@ -4425,7 +4496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
@@ -4446,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -4467,7 +4538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4488,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1</v>
       </c>
@@ -4509,7 +4580,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -4530,7 +4601,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1</v>
       </c>
@@ -4551,7 +4622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
@@ -4572,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
@@ -4593,7 +4664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -4614,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
@@ -4635,7 +4706,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -4656,7 +4727,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
@@ -4677,7 +4748,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2</v>
       </c>
@@ -4698,7 +4769,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>3</v>
       </c>
@@ -4719,7 +4790,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>3</v>
       </c>
@@ -4740,7 +4811,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>4</v>
       </c>
@@ -4761,7 +4832,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>4</v>
       </c>
@@ -4782,7 +4853,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1</v>
       </c>
@@ -4803,7 +4874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2</v>
       </c>
@@ -4824,7 +4895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2</v>
       </c>
@@ -4845,7 +4916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>3</v>
       </c>
@@ -4866,7 +4937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>3</v>
       </c>
@@ -4887,7 +4958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>4</v>
       </c>
@@ -4908,7 +4979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>4</v>
       </c>
@@ -4929,7 +5000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4950,7 +5021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2</v>
       </c>
@@ -4971,7 +5042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2</v>
       </c>
@@ -4992,7 +5063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>3</v>
       </c>
@@ -5013,7 +5084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>3</v>
       </c>
@@ -5034,7 +5105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>4</v>
       </c>
@@ -5055,7 +5126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>4</v>
       </c>
@@ -5076,7 +5147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1</v>
       </c>
@@ -5097,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2</v>
       </c>
@@ -5118,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2</v>
       </c>
@@ -5139,7 +5210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>3</v>
       </c>
@@ -5160,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>3</v>
       </c>
@@ -5181,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>4</v>
       </c>
@@ -5202,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>4</v>
       </c>
@@ -5223,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1</v>
       </c>
@@ -5244,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2</v>
       </c>
@@ -5265,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2</v>
       </c>
@@ -5286,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>3</v>
       </c>
@@ -5307,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>3</v>
       </c>
@@ -5328,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>4</v>
       </c>
@@ -5349,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>4</v>
       </c>
@@ -5370,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -5391,7 +5462,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2</v>
       </c>
@@ -5412,7 +5483,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2</v>
       </c>
@@ -5433,7 +5504,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>3</v>
       </c>
@@ -5454,7 +5525,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>3</v>
       </c>
@@ -5475,7 +5546,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>4</v>
       </c>
@@ -5496,7 +5567,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>4</v>
       </c>
@@ -5517,7 +5588,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
@@ -5538,7 +5609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2</v>
       </c>
@@ -5559,7 +5630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2</v>
       </c>
@@ -5580,7 +5651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>3</v>
       </c>
@@ -5601,7 +5672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -5622,7 +5693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>4</v>
       </c>
@@ -5643,7 +5714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>4</v>
       </c>
@@ -5664,7 +5735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5685,7 +5756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2</v>
       </c>
@@ -5706,7 +5777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2</v>
       </c>
@@ -5727,7 +5798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>3</v>
       </c>
@@ -5748,7 +5819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>3</v>
       </c>
@@ -5769,7 +5840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>4</v>
       </c>
@@ -5790,7 +5861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>4</v>
       </c>
@@ -5811,7 +5882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1</v>
       </c>
@@ -5832,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2</v>
       </c>
@@ -5853,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2</v>
       </c>
@@ -5874,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3</v>
       </c>
@@ -5895,7 +5966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>3</v>
       </c>
@@ -5916,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>4</v>
       </c>
@@ -5937,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>4</v>
       </c>
@@ -5958,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -5979,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2</v>
       </c>
@@ -6000,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2</v>
       </c>
@@ -6021,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>3</v>
       </c>
@@ -6042,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>3</v>
       </c>
@@ -6063,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>4</v>
       </c>
@@ -6084,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>4</v>
       </c>
@@ -6105,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -6126,7 +6197,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2</v>
       </c>
@@ -6147,7 +6218,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2</v>
       </c>
@@ -6168,7 +6239,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>3</v>
       </c>
@@ -6189,7 +6260,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>3</v>
       </c>
@@ -6210,7 +6281,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>4</v>
       </c>
@@ -6231,7 +6302,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>4</v>
       </c>
@@ -6252,7 +6323,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -6273,7 +6344,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2</v>
       </c>
@@ -6294,7 +6365,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2</v>
       </c>
@@ -6315,7 +6386,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>3</v>
       </c>
@@ -6336,7 +6407,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>3</v>
       </c>
@@ -6357,7 +6428,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>4</v>
       </c>
@@ -6378,7 +6449,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>4</v>
       </c>
@@ -6399,7 +6470,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1</v>
       </c>
@@ -6420,7 +6491,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -6441,7 +6512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
@@ -6462,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1</v>
       </c>
@@ -6483,7 +6554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
@@ -6504,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1</v>
       </c>
@@ -6525,7 +6596,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1</v>
       </c>
@@ -6546,7 +6617,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
@@ -6567,7 +6638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1</v>
       </c>
@@ -6588,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1</v>
       </c>
@@ -6609,7 +6680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
@@ -6630,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1</v>
       </c>
@@ -6651,7 +6722,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
@@ -6672,7 +6743,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
@@ -6693,7 +6764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
@@ -6714,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1</v>
       </c>
@@ -6735,7 +6806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
@@ -6756,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1</v>
       </c>
@@ -6777,7 +6848,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1</v>
       </c>
@@ -6798,7 +6869,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2</v>
       </c>
@@ -6819,7 +6890,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2</v>
       </c>
@@ -6840,7 +6911,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>3</v>
       </c>
@@ -6861,7 +6932,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>3</v>
       </c>
@@ -6882,7 +6953,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>4</v>
       </c>
@@ -6903,7 +6974,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>4</v>
       </c>
@@ -6924,7 +6995,7 @@
         <v>-0.99999999352850799</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1</v>
       </c>
@@ -6945,7 +7016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2</v>
       </c>
@@ -6966,7 +7037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2</v>
       </c>
@@ -6987,7 +7058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>3</v>
       </c>
@@ -7008,7 +7079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>3</v>
       </c>
@@ -7029,7 +7100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>4</v>
       </c>
@@ -7050,7 +7121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>4</v>
       </c>
@@ -7071,7 +7142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1</v>
       </c>
@@ -7092,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2</v>
       </c>
@@ -7113,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2</v>
       </c>
@@ -7134,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>3</v>
       </c>
@@ -7155,7 +7226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>3</v>
       </c>
@@ -7176,7 +7247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>4</v>
       </c>
@@ -7197,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>4</v>
       </c>
@@ -7218,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1</v>
       </c>
@@ -7239,7 +7310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2</v>
       </c>
@@ -7260,7 +7331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2</v>
       </c>
@@ -7281,7 +7352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>3</v>
       </c>
@@ -7302,7 +7373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>3</v>
       </c>
@@ -7323,7 +7394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>4</v>
       </c>
@@ -7344,7 +7415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>4</v>
       </c>
@@ -7365,7 +7436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
@@ -7386,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2</v>
       </c>
@@ -7407,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2</v>
       </c>
@@ -7428,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>3</v>
       </c>
@@ -7449,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>3</v>
       </c>
@@ -7470,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>4</v>
       </c>
@@ -7491,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>4</v>
       </c>
@@ -7512,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1</v>
       </c>
@@ -7533,7 +7604,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2</v>
       </c>
@@ -7554,7 +7625,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2</v>
       </c>
@@ -7575,7 +7646,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>3</v>
       </c>
@@ -7596,7 +7667,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>3</v>
       </c>
@@ -7617,7 +7688,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>4</v>
       </c>
@@ -7638,7 +7709,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>4</v>
       </c>
@@ -7659,7 +7730,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1</v>
       </c>
@@ -7677,7 +7748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -7712,7 +7783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>3</v>
       </c>
@@ -7734,7 +7805,7 @@
         <v>12.096358047415595</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2</v>
       </c>
@@ -7756,7 +7827,7 @@
         <v>15.242798519304547</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1</v>
       </c>
@@ -7778,7 +7849,7 @@
         <v>18.628036517682755</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>0</v>
       </c>
@@ -7800,7 +7871,7 @@
         <v>21.960368843279159</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>-1</v>
       </c>
@@ -7832,12 +7903,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8058,15 +8126,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42C6F24B-A1F8-4C98-ADFF-019D5BA23F0C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B43B528-9716-43E7-A4B6-97F9FAC2D1F2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8091,10 +8163,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B43B528-9716-43E7-A4B6-97F9FAC2D1F2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42C6F24B-A1F8-4C98-ADFF-019D5BA23F0C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>